--- a/ReactiveTables.Framework.PerformanceTests/Results/FullJoinedTablesTest.xlsx
+++ b/ReactiveTables.Framework.PerformanceTests/Results/FullJoinedTablesTest.xlsx
@@ -1337,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149197952"/>
-        <c:axId val="149199488"/>
+        <c:axId val="278814720"/>
+        <c:axId val="278816256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149197952"/>
+        <c:axId val="278814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149199488"/>
+        <c:crossAx val="278816256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149199488"/>
+        <c:axId val="278816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149197952"/>
+        <c:crossAx val="278814720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3185,11 +3185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151598208"/>
-        <c:axId val="151599744"/>
+        <c:axId val="296199680"/>
+        <c:axId val="296201216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151598208"/>
+        <c:axId val="296199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +3198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151599744"/>
+        <c:crossAx val="296201216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3206,7 +3206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151599744"/>
+        <c:axId val="296201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151598208"/>
+        <c:crossAx val="296199680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
